--- a/config_debug/welfare_activity_server.xlsx
+++ b/config_debug/welfare_activity_server.xlsx
@@ -81,16 +81,16 @@
     <t>jing_bi</t>
   </si>
   <si>
-    <t>300万鱼币</t>
-  </si>
-  <si>
-    <t>fish_coin</t>
+    <t>300万小游戏币</t>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
   </si>
   <si>
     <t>180万金币</t>
   </si>
   <si>
-    <t>120万鱼币</t>
+    <t>120万小游戏币</t>
   </si>
   <si>
     <t>100万金币</t>
@@ -107,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -133,16 +133,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,128 +231,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,31 +292,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,151 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +477,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,11 +519,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,17 +558,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,41 +577,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -591,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1139,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/config_debug/welfare_activity_server.xlsx
+++ b/config_debug/welfare_activity_server.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,36 +18,36 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
+    <t>act_type|活动类型</t>
+  </si>
+  <si>
+    <t>act_lb_name|礼包名称</t>
+  </si>
+  <si>
+    <t>every_day_award_value|每日登陆奖励金币</t>
+  </si>
+  <si>
+    <t>libao_id_1|1号礼包id</t>
+  </si>
+  <si>
+    <t>libao_id_2|2号礼包id</t>
+  </si>
+  <si>
+    <t>real_cfg_id|真配置id</t>
+  </si>
+  <si>
+    <t>false_cfg_id|假配置id</t>
+  </si>
+  <si>
+    <t>wylft_mslb</t>
+  </si>
+  <si>
+    <t>秒杀礼包</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>act_type|活动类型</t>
-  </si>
-  <si>
-    <t>act_lb_name|礼包名称</t>
-  </si>
-  <si>
-    <t>every_day_award_value|每日登陆奖励金币</t>
-  </si>
-  <si>
-    <t>libao_id_1|1号礼包id</t>
-  </si>
-  <si>
-    <t>libao_id_2|2号礼包id</t>
-  </si>
-  <si>
-    <t>real_cfg_id|真配置id</t>
-  </si>
-  <si>
-    <t>false_cfg_id|假配置id</t>
-  </si>
-  <si>
-    <t>wylft_mslb</t>
-  </si>
-  <si>
-    <t>秒杀礼包</t>
-  </si>
-  <si>
     <t>real_cfg_id</t>
   </si>
   <si>
@@ -89,7 +84,7 @@
     <t>300万鱼币</t>
   </si>
   <si>
-    <t>com_icon_yb</t>
+    <t>fish_coin</t>
   </si>
   <si>
     <t>180万金币</t>
@@ -110,8 +105,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +133,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,8 +290,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -160,13 +485,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -182,21 +749,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -454,62 +1068,62 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="7" width="22.25" customWidth="1"/>
     <col min="8" max="8" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2">
         <v>300000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>10533</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>10534</v>
       </c>
       <c r="G2">
@@ -520,27 +1134,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -561,7 +1176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -582,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -605,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -628,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -644,14 +1259,14 @@
       <c r="E5" s="2">
         <v>3000000</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -674,7 +1289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -690,14 +1305,14 @@
       <c r="E7" s="2">
         <v>1200000</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -720,7 +1335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -744,27 +1359,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>27</v>
@@ -785,7 +1401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -805,7 +1421,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/welfare_activity_server.xlsx
+++ b/config_debug/welfare_activity_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>act_type|活动类型</t>
   </si>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1057,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1110,8 +1110,191 @@
         <v>100</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7">
+        <v>9800000</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4800</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2800</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1800000</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7">
+        <v>800000</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7">
+        <v>700000</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7">
+        <v>600000</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="11">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/welfare_activity_server.xlsx
+++ b/config_debug/welfare_activity_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
